--- a/building_info_18_10_2016.xlsx
+++ b/building_info_18_10_2016.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars_Goray\Desktop\Wärmenetzplanung\Waermenetzplanung\lcdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars_Goray\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\heat_net_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F250C-BCD2-429B-8D4F-D2B5CA1BF455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A7A22-1EF8-48FE-9C0F-7F26C09AA797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
     <sheet name="Spez 1010" sheetId="6" r:id="rId2"/>
     <sheet name="Quellen" sheetId="4" r:id="rId3"/>
-    <sheet name="Tabelle2" sheetId="5" r:id="rId4"/>
+    <sheet name="Grunddaten_Gebaeude" sheetId="5" r:id="rId4"/>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="343">
   <si>
     <t>Funktion</t>
   </si>
@@ -997,6 +997,72 @@
   </si>
   <si>
     <t>GHA</t>
+  </si>
+  <si>
+    <t>Baualtersklasse</t>
+  </si>
+  <si>
+    <t>Waerme_MFH kWh/m²·a</t>
+  </si>
+  <si>
+    <t>Waerme_EFH kWh/m²·a</t>
+  </si>
+  <si>
+    <t>A/B</t>
+  </si>
+  <si>
+    <t>vor 1918</t>
+  </si>
+  <si>
+    <t>1918-1948</t>
+  </si>
+  <si>
+    <t>1949-1957</t>
+  </si>
+  <si>
+    <t>1958-1968</t>
+  </si>
+  <si>
+    <t>1969-1978</t>
+  </si>
+  <si>
+    <t>1979-1987</t>
+  </si>
+  <si>
+    <t>1988-1993</t>
+  </si>
+  <si>
+    <t>1994-2001</t>
+  </si>
+  <si>
+    <t>2002-2010</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>2011 - 2016</t>
+  </si>
+  <si>
+    <t>Quelle: IWU (2015): Deutsche Wohngebäudetypologie Beispielhafte Maßnahmen zur Verbesserung der Energieeffizienz von typischen Wohngebäuden - zweite erweiterte Auflage , S. 55 und S. 65; online unter: https://www.alt-bau-neu.de/_database/_data/datainfopool/TypologyBrochure_IWU_ohne%20Anh%C3%83%C2%A4nge.pdf</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ab 2016</t>
+  </si>
+  <si>
+    <t>Effizienzklasse</t>
+  </si>
+  <si>
+    <t>Min kWh/m²·a</t>
+  </si>
+  <si>
+    <t>Max kWh/m²·a</t>
+  </si>
+  <si>
+    <t>A+</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1072,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,8 +1092,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,8 +1114,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1073,11 +1153,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1103,6 +1227,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2464,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11051,7 +11199,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12282,8 +12430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12561,26 +12709,344 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1010</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="19">
+        <v>155</v>
+      </c>
+      <c r="D2" s="19">
+        <v>188.2</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="23">
+        <v>159</v>
+      </c>
+      <c r="D3" s="23">
+        <v>199</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="19">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="D4" s="19">
+        <v>202</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="23">
+        <v>154.4</v>
+      </c>
+      <c r="D5" s="23">
+        <v>196.6</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="19">
+        <v>147.9</v>
+      </c>
+      <c r="D6" s="19">
+        <v>185.5</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="23">
+        <v>129.6</v>
+      </c>
+      <c r="D7" s="23">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="19">
+        <v>122.5</v>
+      </c>
+      <c r="D8" s="19">
+        <v>144</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="23">
+        <v>115.3</v>
+      </c>
+      <c r="D9" s="23">
+        <v>114.5</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="19">
+        <v>96.1</v>
+      </c>
+      <c r="D10" s="19">
+        <v>91.4</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="23">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D11" s="23">
+        <v>81.5</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="26">
+        <v>40.9</v>
+      </c>
+      <c r="D12" s="26">
+        <v>70.125</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C2">
-        <v>188</v>
-      </c>
-      <c r="D2">
-        <v>32</v>
+      <c r="B17" s="15">
+        <v>30</v>
+      </c>
+      <c r="C17" s="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="21">
+        <v>50</v>
+      </c>
+      <c r="C18" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="15">
+        <v>75</v>
+      </c>
+      <c r="C19" s="15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="21">
+        <v>100</v>
+      </c>
+      <c r="C20" s="21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="15">
+        <v>130</v>
+      </c>
+      <c r="C21" s="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="21">
+        <v>160</v>
+      </c>
+      <c r="C22" s="21">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="15">
+        <v>200</v>
+      </c>
+      <c r="C23" s="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="21">
+        <v>250</v>
+      </c>
+      <c r="C24" s="21">
+        <v>9999999</v>
       </c>
     </row>
   </sheetData>
